--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57340.52049353016</v>
+        <v>-59778.99359327689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>354.5484653904721</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>277.9449912585753</v>
+        <v>132.1427496906273</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>268.4081609737809</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>2.148488117499204</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>212.4328997289528</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>305.2965548759468</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>348.9595236589672</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.960678120154229</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>185.0961801379363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>356.6602431279396</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>36.44558365834263</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>155.0457210817795</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>105.0095044431338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>219.245038753228</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>145.8985436303878</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>71.79687029690999</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>95.05806357631816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>3.458642397731778</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>95.12712756823812</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>65.56423921895217</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>126.9263824507425</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>55.47031642759631</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>28.87857325623944</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>120.4832454124057</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>115.8627380890762</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2158.017852261501</v>
+        <v>1294.320910062631</v>
       </c>
       <c r="C2" t="n">
-        <v>1799.888089240822</v>
+        <v>925.3583931222192</v>
       </c>
       <c r="D2" t="n">
-        <v>1441.622390634071</v>
+        <v>925.3583931222192</v>
       </c>
       <c r="E2" t="n">
-        <v>1055.834138035827</v>
+        <v>539.5701405239751</v>
       </c>
       <c r="F2" t="n">
-        <v>644.8482332462195</v>
+        <v>539.5701405239751</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4337,10 +4337,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.017852261501</v>
+        <v>1680.920750126753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>333.710820256795</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C4" t="n">
-        <v>333.710820256795</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D4" t="n">
-        <v>333.710820256795</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>333.710820256795</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
         <v>331.5406302391191</v>
@@ -4486,16 +4486,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W4" t="n">
-        <v>782.4929502983425</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X4" t="n">
-        <v>554.5033994003252</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="Y4" t="n">
-        <v>333.710820256795</v>
+        <v>976.9283190775692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1647.321240915451</v>
+        <v>2240.58245709072</v>
       </c>
       <c r="C5" t="n">
-        <v>1278.358723975039</v>
+        <v>1871.619940150309</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1513.354241543558</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1127.565988945314</v>
       </c>
       <c r="F5" t="n">
-        <v>481.584566587187</v>
+        <v>716.5800841557063</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218345</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883009</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883009</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612894</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351815</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376003</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>560.1023745137405</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>391.1661915858336</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>391.1661915858336</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>391.1661915858336</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>244.2762440879233</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218345</v>
+        <v>76.57340746264225</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214137</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.50719300825</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971289</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732717</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.1346335501037</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1252.833343223198</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>481.584566587187</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3082.814353126381</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263132</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.43318328732</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>511.4317969248226</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>613.5567673704356</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>613.5567673704356</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>613.5567673704356</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218345</v>
+        <v>466.6668198725253</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218345</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1028.838517859801</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>739.4213478228399</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X10" t="n">
-        <v>511.4317969248226</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y10" t="n">
-        <v>511.4317969248226</v>
+        <v>782.4929502983425</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5030,13 +5030,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>951.777212765616</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>166.3387542569719</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,19 +5525,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630049</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>776.466420735098</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227623</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4366877403692</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5467402424588</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2193.56896730804</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1904.493740652238</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1649.809252446351</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1360.39208240939</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1132.402531511373</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876652</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327652</v>
+        <v>580.8993044876652</v>
       </c>
       <c r="D22" t="n">
-        <v>763.7541388327652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>615.8410452503721</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>468.9510977524617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>301.7549984673416</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>160.0431673095397</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>983.340348461435</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>762.5477693179049</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C25" t="n">
-        <v>385.6451336181095</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,16 +7546,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,37 +7567,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
         <v>1746.193029533436</v>
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7244263805354</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>278.7789759628262</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>143.272559905432</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>32.89260457059996</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.68610972170703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856704</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>70.46607471595068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671011865</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>213.9468079295565</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098626</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>53.48834544997423</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>15.70159709961335</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>40.32043864788533</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>90.96364621897285</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>257.6444250803515</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>32.75273492913618</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794692</v>
+        <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457134</v>
@@ -26320,28 +26320,28 @@
         <v>328416.7079457132</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="G2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="H2" t="n">
         <v>322858.6398760024</v>
       </c>
-      <c r="H2" t="n">
-        <v>322858.6398760025</v>
-      </c>
       <c r="I2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="L2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="L2" t="n">
-        <v>322858.6398760026</v>
       </c>
       <c r="M2" t="n">
         <v>322858.6398760026</v>
@@ -26350,7 +26350,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760024</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>3.539624622135307e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49629.01520551639</v>
+        <v>49629.01520551657</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818164</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818169</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26439,10 +26439,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683041</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="L4" t="n">
         <v>12996.86414683044</v>
@@ -26451,7 +26451,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1187713.935715033</v>
+        <v>-1187900.329103572</v>
       </c>
       <c r="C6" t="n">
-        <v>128298.868466138</v>
+        <v>128298.8684661381</v>
       </c>
       <c r="D6" t="n">
-        <v>128298.8684661385</v>
+        <v>128298.8684661383</v>
       </c>
       <c r="E6" t="n">
-        <v>-116673.2159020902</v>
+        <v>-116707.9538275259</v>
       </c>
       <c r="F6" t="n">
-        <v>208739.2459052647</v>
+        <v>208704.507979829</v>
       </c>
       <c r="G6" t="n">
-        <v>208739.2459052647</v>
+        <v>208704.507979829</v>
       </c>
       <c r="H6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.5079798291</v>
       </c>
       <c r="I6" t="n">
-        <v>208739.245905265</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="J6" t="n">
-        <v>-8791.956492012381</v>
+        <v>-8826.694417448351</v>
       </c>
       <c r="K6" t="n">
-        <v>208739.2459052647</v>
+        <v>208704.507979829</v>
       </c>
       <c r="L6" t="n">
-        <v>208739.245905265</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="M6" t="n">
-        <v>123684.2179697534</v>
+        <v>123649.4800443175</v>
       </c>
       <c r="N6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="O6" t="n">
-        <v>208739.245905265</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="P6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.5079798292</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,28 +26802,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>132.9767343948782</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>117.8297776822727</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>6.151753623142014</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.43728678753382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>61.96220199448624</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>134.7943367941666</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.48847321415846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.612648643067985</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>214.5495883005593</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>10.98008717724872</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>147.1281388806942</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29509,13 +29509,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,7 +32093,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,7 +35741,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066212</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
